--- a/DZ/5 пункт/data_4.xlsx
+++ b/DZ/5 пункт/data_4.xlsx
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.058</v>
+        <v>0.039</v>
       </c>
       <c r="C2">
-        <v>8.565</v>
+        <v>4.916</v>
       </c>
       <c r="D2">
-        <v>2056.954</v>
+        <v>2036.698</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.153</v>
+        <v>0.15</v>
       </c>
       <c r="C3">
-        <v>16.969</v>
+        <v>15.08</v>
       </c>
       <c r="D3">
-        <v>2805.006</v>
+        <v>2914.326</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>24.485</v>
+        <v>24.48</v>
       </c>
       <c r="C4">
-        <v>12.467</v>
+        <v>12.415</v>
       </c>
       <c r="D4">
-        <v>3000.488</v>
+        <v>2998.511</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25.49</v>
+        <v>25.48</v>
       </c>
       <c r="C5">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
       <c r="D5">
-        <v>1605.729</v>
+        <v>1472.361</v>
       </c>
     </row>
   </sheetData>
